--- a/updatedExcels/S3_EE.xlsx
+++ b/updatedExcels/S3_EE.xlsx
@@ -21597,12 +21597,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21624,12 +21624,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21651,12 +21651,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -21678,12 +21678,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -21705,12 +21705,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -21840,12 +21840,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -21867,12 +21867,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21921,12 +21921,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -22083,12 +22083,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -22110,12 +22110,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22245,12 +22245,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22272,12 +22272,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -22299,12 +22299,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -22353,12 +22353,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -22380,12 +22380,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -22407,12 +22407,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -22758,12 +22758,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -22785,12 +22785,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -22974,12 +22974,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23028,12 +23028,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -23055,12 +23055,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -23082,12 +23082,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23109,12 +23109,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23136,12 +23136,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23163,12 +23163,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -23217,12 +23217,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -23244,12 +23244,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23271,12 +23271,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -23298,12 +23298,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23325,12 +23325,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23352,12 +23352,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23379,12 +23379,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -23514,12 +23514,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23541,12 +23541,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23595,12 +23595,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23649,12 +23649,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -23676,12 +23676,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -23703,12 +23703,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -23730,12 +23730,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23811,12 +23811,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23865,12 +23865,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -23892,12 +23892,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -23919,12 +23919,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -23946,12 +23946,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -23973,12 +23973,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24000,12 +24000,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -24027,12 +24027,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -24054,12 +24054,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -24081,12 +24081,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -24108,12 +24108,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24135,12 +24135,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -24162,12 +24162,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24189,12 +24189,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -24216,12 +24216,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24243,12 +24243,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -24270,12 +24270,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -24297,12 +24297,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24324,12 +24324,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24351,12 +24351,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -24405,12 +24405,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24432,12 +24432,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -24486,12 +24486,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24513,12 +24513,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24540,12 +24540,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -24567,12 +24567,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -24594,12 +24594,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -24621,12 +24621,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -24675,12 +24675,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -24729,12 +24729,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -24756,12 +24756,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -24783,12 +24783,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24810,12 +24810,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -24864,12 +24864,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -24891,12 +24891,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24918,12 +24918,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24972,12 +24972,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -24999,12 +24999,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -25026,12 +25026,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -25053,12 +25053,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -25080,12 +25080,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25107,12 +25107,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -25161,12 +25161,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25188,12 +25188,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -25215,12 +25215,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -25242,12 +25242,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -25269,12 +25269,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -25296,12 +25296,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25323,12 +25323,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -25350,12 +25350,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -25377,12 +25377,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25404,12 +25404,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25431,12 +25431,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -25458,12 +25458,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -25485,12 +25485,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25512,12 +25512,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -25539,12 +25539,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25566,12 +25566,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25593,12 +25593,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -25620,12 +25620,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -25647,12 +25647,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -25674,12 +25674,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -25701,12 +25701,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -25755,12 +25755,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -25782,12 +25782,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25809,12 +25809,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25836,12 +25836,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -25863,12 +25863,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -25917,12 +25917,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25944,12 +25944,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -25971,12 +25971,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -25998,12 +25998,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -26025,12 +26025,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26052,12 +26052,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -26079,12 +26079,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -26214,12 +26214,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26241,12 +26241,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -26295,12 +26295,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -26349,12 +26349,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -26376,12 +26376,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26403,12 +26403,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -26430,12 +26430,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -26457,12 +26457,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26484,12 +26484,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26511,12 +26511,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -26538,12 +26538,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -26565,12 +26565,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26592,12 +26592,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -26619,12 +26619,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26646,12 +26646,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26673,12 +26673,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -26700,12 +26700,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -26754,12 +26754,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -26781,12 +26781,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -26808,12 +26808,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26835,12 +26835,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -26862,12 +26862,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -26889,12 +26889,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26916,12 +26916,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26943,12 +26943,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -26970,12 +26970,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -26997,12 +26997,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27024,12 +27024,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -27051,12 +27051,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -27078,12 +27078,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -27105,12 +27105,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27132,12 +27132,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27159,12 +27159,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -27186,12 +27186,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -27213,12 +27213,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27240,12 +27240,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -27267,12 +27267,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27294,12 +27294,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27321,12 +27321,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -27348,12 +27348,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -27375,12 +27375,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -27429,12 +27429,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -27456,12 +27456,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -27483,12 +27483,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27510,12 +27510,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -27537,12 +27537,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -27564,12 +27564,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27591,12 +27591,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -27618,12 +27618,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27645,12 +27645,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -27672,12 +27672,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -27699,12 +27699,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27726,12 +27726,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27753,12 +27753,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -27807,12 +27807,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27834,12 +27834,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -27861,12 +27861,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -27915,12 +27915,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -27942,12 +27942,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27969,12 +27969,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27996,12 +27996,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -28023,12 +28023,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -28050,12 +28050,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -28077,12 +28077,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28104,12 +28104,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -28131,12 +28131,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -28158,12 +28158,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28185,12 +28185,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28212,12 +28212,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -28239,12 +28239,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -28266,12 +28266,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -28293,12 +28293,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -28320,12 +28320,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28347,12 +28347,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -28401,12 +28401,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28428,12 +28428,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -28455,12 +28455,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -28482,12 +28482,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -28509,12 +28509,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -28536,12 +28536,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28563,12 +28563,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28590,12 +28590,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -28644,12 +28644,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -28671,12 +28671,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -28698,12 +28698,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28725,12 +28725,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -28752,12 +28752,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -28779,12 +28779,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -28806,12 +28806,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -28860,12 +28860,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -28887,12 +28887,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28914,12 +28914,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28941,12 +28941,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28968,12 +28968,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28995,12 +28995,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -29022,12 +29022,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -29049,12 +29049,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -29076,12 +29076,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -29103,12 +29103,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29130,12 +29130,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -29157,12 +29157,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -29211,12 +29211,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29238,12 +29238,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29265,12 +29265,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -29292,12 +29292,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -29319,12 +29319,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -29346,12 +29346,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29373,12 +29373,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -29400,12 +29400,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -29427,12 +29427,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -29454,12 +29454,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29481,12 +29481,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29508,12 +29508,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29535,12 +29535,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -29562,12 +29562,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -29589,12 +29589,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -29616,12 +29616,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29643,12 +29643,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -29670,12 +29670,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29697,12 +29697,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -29724,12 +29724,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -29751,12 +29751,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29778,12 +29778,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -29805,12 +29805,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29832,12 +29832,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -29886,12 +29886,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29913,12 +29913,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -29940,12 +29940,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -29967,12 +29967,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -29994,12 +29994,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30048,12 +30048,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -30075,12 +30075,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30102,12 +30102,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30129,12 +30129,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -30183,12 +30183,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -30210,12 +30210,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30237,12 +30237,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -30264,12 +30264,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30291,12 +30291,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30318,12 +30318,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -30345,12 +30345,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30372,12 +30372,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30399,12 +30399,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -30453,12 +30453,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30507,12 +30507,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -30534,12 +30534,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -30561,12 +30561,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30615,12 +30615,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -30642,12 +30642,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -30669,12 +30669,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30696,12 +30696,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30723,12 +30723,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -30750,12 +30750,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30777,12 +30777,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -30804,12 +30804,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30831,12 +30831,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -30858,12 +30858,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -30885,12 +30885,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -30912,12 +30912,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30939,12 +30939,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -30966,12 +30966,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30993,12 +30993,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31020,12 +31020,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -31074,12 +31074,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -31101,12 +31101,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -31128,12 +31128,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31155,12 +31155,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -31182,12 +31182,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -31209,12 +31209,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31236,12 +31236,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31263,12 +31263,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -31290,12 +31290,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -31317,12 +31317,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -31371,12 +31371,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -31398,12 +31398,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31425,12 +31425,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31452,12 +31452,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -31479,12 +31479,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -31506,12 +31506,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -31533,12 +31533,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31560,12 +31560,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -31614,12 +31614,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31641,12 +31641,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31668,12 +31668,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -31695,12 +31695,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -31722,12 +31722,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -31749,12 +31749,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31776,12 +31776,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -31830,12 +31830,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -31857,12 +31857,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -31884,12 +31884,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -31938,12 +31938,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31965,12 +31965,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -31992,12 +31992,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32019,12 +32019,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32046,12 +32046,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -32073,12 +32073,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -32100,12 +32100,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -32127,12 +32127,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -32154,12 +32154,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32181,12 +32181,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -32208,12 +32208,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32235,12 +32235,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -32262,12 +32262,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32289,12 +32289,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32316,12 +32316,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -32370,12 +32370,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -32424,12 +32424,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -32451,12 +32451,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32478,12 +32478,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -32505,12 +32505,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32532,12 +32532,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32559,12 +32559,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -32586,12 +32586,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -32613,12 +32613,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -32640,12 +32640,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32667,12 +32667,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -32694,12 +32694,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32721,12 +32721,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32748,12 +32748,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -32775,12 +32775,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -32802,12 +32802,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -32829,12 +32829,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32856,12 +32856,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -32883,12 +32883,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -32910,12 +32910,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32937,12 +32937,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -32991,12 +32991,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33018,12 +33018,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33045,12 +33045,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33099,12 +33099,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33153,12 +33153,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33180,12 +33180,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -33234,12 +33234,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -33261,12 +33261,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33288,12 +33288,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -33315,12 +33315,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -33342,12 +33342,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -33369,12 +33369,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33396,12 +33396,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33423,12 +33423,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -33450,12 +33450,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33477,12 +33477,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -33504,12 +33504,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -33531,12 +33531,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33558,12 +33558,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33585,12 +33585,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -33612,12 +33612,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -33639,12 +33639,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33666,12 +33666,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33693,12 +33693,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33747,12 +33747,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -33774,12 +33774,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33801,12 +33801,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33828,12 +33828,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -33855,12 +33855,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -33909,12 +33909,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -33936,12 +33936,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33963,12 +33963,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -33990,12 +33990,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34017,12 +34017,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34098,12 +34098,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -34125,12 +34125,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -34152,12 +34152,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34179,12 +34179,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -34206,12 +34206,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -34233,12 +34233,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34260,12 +34260,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34287,12 +34287,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -34314,12 +34314,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -34341,12 +34341,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -34368,12 +34368,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -34395,12 +34395,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34422,12 +34422,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34449,12 +34449,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -34476,12 +34476,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -34503,12 +34503,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34557,12 +34557,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34584,12 +34584,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -34611,12 +34611,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -34638,12 +34638,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34665,12 +34665,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34692,12 +34692,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -34719,12 +34719,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -34746,12 +34746,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -34773,12 +34773,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34800,12 +34800,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -34827,12 +34827,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -34854,12 +34854,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34881,12 +34881,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -34908,12 +34908,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34935,12 +34935,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -34962,12 +34962,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -35016,12 +35016,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -35043,12 +35043,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -35070,12 +35070,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -35097,12 +35097,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -35124,12 +35124,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -35151,12 +35151,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -35178,12 +35178,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -35205,12 +35205,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -35232,12 +35232,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -35259,12 +35259,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -35286,12 +35286,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -35340,12 +35340,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -35367,12 +35367,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -35394,12 +35394,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -35421,12 +35421,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -35448,12 +35448,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -35475,12 +35475,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -35502,12 +35502,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -35529,12 +35529,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -35556,12 +35556,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -35583,12 +35583,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -35610,12 +35610,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -35637,12 +35637,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -35664,12 +35664,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -35691,12 +35691,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -35772,12 +35772,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -35799,12 +35799,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -35826,12 +35826,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -35853,12 +35853,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -35880,12 +35880,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -35907,12 +35907,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -35934,12 +35934,12 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -35961,12 +35961,12 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -35988,12 +35988,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -36015,12 +36015,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -36042,12 +36042,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -36096,12 +36096,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -36123,12 +36123,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -36150,12 +36150,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -36204,12 +36204,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -36231,12 +36231,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -36258,12 +36258,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -36285,12 +36285,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -36312,12 +36312,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -36339,12 +36339,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -36366,12 +36366,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -36393,12 +36393,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -36420,12 +36420,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -36447,12 +36447,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -36474,12 +36474,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -36501,12 +36501,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -36582,12 +36582,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -36609,12 +36609,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -36663,12 +36663,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -36690,12 +36690,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -36717,12 +36717,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -36771,12 +36771,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -36798,12 +36798,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -36825,12 +36825,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -36879,12 +36879,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -36933,12 +36933,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -36960,12 +36960,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -36987,12 +36987,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -37014,12 +37014,12 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -37041,12 +37041,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -37068,12 +37068,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -37095,12 +37095,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -37122,12 +37122,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -37149,12 +37149,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -37176,12 +37176,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -37203,12 +37203,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET203</t>
         </is>
       </c>
     </row>
@@ -37230,12 +37230,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -37257,12 +37257,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -37284,12 +37284,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>EET203</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -37311,12 +37311,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -37365,12 +37365,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EET201</t>
         </is>
       </c>
     </row>
@@ -37392,12 +37392,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>EET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -37419,12 +37419,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>EEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -37446,12 +37446,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>EET205</t>
+          <t>EEL203</t>
         </is>
       </c>
     </row>
@@ -37500,12 +37500,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>EEL201</t>
         </is>
       </c>
     </row>
@@ -37527,12 +37527,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>EEL201</t>
+          <t>EET205</t>
         </is>
       </c>
     </row>
@@ -37554,12 +37554,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
